--- a/Backlogs/Sprint2_3_Backlog_Template.xlsx
+++ b/Backlogs/Sprint2_3_Backlog_Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Backlogs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61A36A-5349-2D46-968F-BD49BD1E912C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16275" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>User story</t>
   </si>
@@ -34,13 +40,181 @@
   </si>
   <si>
     <t>Reviewers 1</t>
+  </si>
+  <si>
+    <t>Task submission</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to submit description of project/task</t>
+  </si>
+  <si>
+    <t>Mayar</t>
+  </si>
+  <si>
+    <t>Shazly</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to access the description posted by the partner</t>
+  </si>
+  <si>
+    <t>haidy</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to choose categories and enter extra attributes for each category</t>
+  </si>
+  <si>
+    <t>Task negotiation</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to accept and schedule a meeting / decline concerning the posted project</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to accept to arrange a meeting / cancel project</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to define project required skills with a set of attributes (Time, skills, etc…..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a partner I should be able to choose to have a consultant or not </t>
+  </si>
+  <si>
+    <t>As a partner I should be able to provide detailed description in case of no consulatancy</t>
+  </si>
+  <si>
+    <t>Yehia</t>
+  </si>
+  <si>
+    <t>Consultant assignment</t>
+  </si>
+  <si>
+    <t>As a choosen consultant I should be able to accept the project by submitting a detailed plan or reject</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to choose a specific consultant or have it assigned randomly</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>As a partner I should be  able to accept schdeule negotitation meeting /decline consultant's plan</t>
+  </si>
+  <si>
+    <t>As a consultatnt I should be able to accept meeting arrangement or withdraw from the project</t>
+  </si>
+  <si>
+    <t>Mohamed teiby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freenlancer Assignment </t>
+  </si>
+  <si>
+    <t>As a candidate I should be  able to view and search all posted tasks and view recommended tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a candidate I should be able to apply for tasks that I am eligible and certified for </t>
+  </si>
+  <si>
+    <t>Farida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an admin I should be able to choose the freelancer that would be assigned </t>
+  </si>
+  <si>
+    <t>As an accepted candidate I should be able to get a notification and an orientation for the task</t>
+  </si>
+  <si>
+    <t>Project Lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a consulant I should be  able to confirm or propose edits for the freelancer's work </t>
+  </si>
+  <si>
+    <t>Haidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a contributor I should be able to view the project progress bar </t>
+  </si>
+  <si>
+    <t>As a partner I should be able to confirm or propose edit on project's updates</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>As a user I should be notified by location and time to sign contract</t>
+  </si>
+  <si>
+    <t>Dareen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to show my notifcations </t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my profile</t>
+  </si>
+  <si>
+    <t>As a user i should see the signed contracnt and the validity of the membership</t>
+  </si>
+  <si>
+    <t>As a consultancy agency I could view basic information/board members/partners/evetns  by agency/reports &amp;studies</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to view basic information/board members/partners/evetns by agency/field of work</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to view past projects/suggest feedback</t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my attended events</t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my completed projects and reviews received and by whom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to to show my certficates and masterclasses </t>
+  </si>
+  <si>
+    <t>Life Coach reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a member I should be able to book an appointment </t>
+  </si>
+  <si>
+    <t>As a member I should be able to view life coach available slots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a life coach I shold be able to view updated schedule </t>
+  </si>
+  <si>
+    <t>As a life coach I should be able to receive a notification about slot reservation in order to decline/accept</t>
+  </si>
+  <si>
+    <t>As a life coach or member I should be accept/decline/suggest a meeting location</t>
+  </si>
+  <si>
+    <t>Fatma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a member and a life coach I should receive a confiramtion notifcation about the meeting </t>
+  </si>
+  <si>
+    <t>As a life coach I should be able to post my weekly schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +229,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -83,11 +270,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +286,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -145,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,22 +614,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.5" customWidth="1"/>
     <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -423,64 +649,780 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>2.1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -497,24 +1439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlogs/Sprint2_3_Backlog_Template.xlsx
+++ b/Backlogs/Sprint2_3_Backlog_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61A36A-5349-2D46-968F-BD49BD1E912C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A409F9C4-CD08-5F4A-A28D-AC4D3FBE3B64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,10 +929,10 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
